--- a/order_spider/datas/my_books/input_my_booklist.xlsx
+++ b/order_spider/datas/my_books/input_my_booklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
   <si>
     <t>翻阅类</t>
   </si>
@@ -386,12 +386,6 @@
   </si>
   <si>
     <t>吴军 著</t>
-  </si>
-  <si>
-    <t>司马彦字帖：三步练字法-7000通用字-钢笔楷书（描摹）</t>
-  </si>
-  <si>
-    <t>司马彦 著</t>
   </si>
   <si>
     <t>苏菲的世界  [Sophie's World]</t>
@@ -679,36 +673,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,6 +694,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -729,7 +723,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,20 +740,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,15 +762,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,17 +800,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,6 +822,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -852,43 +839,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,127 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,6 +1030,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1057,24 +1053,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,6 +1072,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1105,26 +1094,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,6 +1112,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1151,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,7 +1150,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,7 +1162,7 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,123 +1171,120 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,10 +1601,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A61" sqref="$A61:$XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2291,7 +2275,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>124</v>
@@ -2302,7 +2286,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
         <v>126</v>
@@ -2313,7 +2297,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>128</v>
@@ -2330,23 +2314,23 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>133</v>
@@ -2357,7 +2341,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -2368,7 +2352,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
@@ -2379,7 +2363,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -2390,7 +2374,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>141</v>
@@ -2401,7 +2385,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
@@ -2423,23 +2407,23 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2456,7 +2440,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
         <v>153</v>
@@ -2472,7 +2456,7 @@
       <c r="B77" t="s">
         <v>155</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2483,13 +2467,13 @@
       <c r="B78" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>159</v>
@@ -2500,12 +2484,12 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
         <v>161</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2524,10 +2508,10 @@
       <c r="A82" t="s">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2535,7 +2519,7 @@
       <c r="A83" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>167</v>
       </c>
       <c r="C83" t="s">
@@ -2566,7 +2550,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>173</v>
@@ -2577,29 +2561,29 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
         <v>177</v>
@@ -2621,7 +2605,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>181</v>
@@ -2632,7 +2616,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>183</v>
@@ -2643,7 +2627,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
         <v>185</v>
@@ -2665,7 +2649,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
         <v>189</v>
@@ -2698,7 +2682,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
         <v>195</v>
@@ -2709,7 +2693,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
         <v>197</v>
@@ -2731,7 +2715,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B101" t="s">
         <v>201</v>
@@ -2742,7 +2726,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
         <v>203</v>
@@ -2764,7 +2748,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
         <v>207</v>
@@ -2775,7 +2759,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
@@ -2786,7 +2770,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
         <v>211</v>
@@ -2815,17 +2799,6 @@
       </c>
       <c r="C108" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2833,7 +2806,7 @@
     <sortCondition ref="B1:B75"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A17 A18:A29 A30:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A17 A18:A29 A30:A60 A61:A1048576">
       <formula1>"未读,已读,正在读,翻阅类,已丢失"</formula1>
     </dataValidation>
   </dataValidations>
